--- a/Teileliste_neu20220922.xlsx
+++ b/Teileliste_neu20220922.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gesichert\github\honigautomat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\gesichert\github\honigautomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36D42B4D-0BAA-4431-868F-0C706C57D7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FB9F93-DAF4-4146-90CC-C29BC8A15343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31095" yWindow="795" windowWidth="24690" windowHeight="13890" xr2:uid="{97770CAC-3B54-4B52-950E-CA345E4FEEE4}"/>
+    <workbookView xWindow="31215" yWindow="495" windowWidth="24690" windowHeight="13890" xr2:uid="{97770CAC-3B54-4B52-950E-CA345E4FEEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -286,6 +279,57 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>Eucalyptus:  9,40€</t>
+  </si>
+  <si>
+    <t>https://www.hornbach.de/shop/Siebdrucksperrholz-Eucalyptus-Sieb-Film-1250x2500x9-mm/10578450/artikel.html</t>
+  </si>
+  <si>
+    <t>Eucalyptus: 6,28€</t>
+  </si>
+  <si>
+    <t>Mitte: Länge: 268 / Seitenteile: 278mm</t>
+  </si>
+  <si>
+    <t>Eucalyptus: 4,50</t>
+  </si>
+  <si>
+    <t>Halteplatte Elektronik Siebdruck 9mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Extrareihe Fächer </t>
+  </si>
+  <si>
+    <t>2 x Bodenplatte</t>
+  </si>
+  <si>
+    <t>**************************</t>
+  </si>
+  <si>
+    <t>******************************</t>
+  </si>
+  <si>
+    <t>*******</t>
+  </si>
+  <si>
+    <t>******************</t>
+  </si>
+  <si>
+    <t>Seitenteile  9mm Siebdruck</t>
+  </si>
+  <si>
+    <t>618 * 163</t>
+  </si>
+  <si>
+    <t>Rueckwand 4mm</t>
+  </si>
+  <si>
+    <t>338 * 186</t>
+  </si>
+  <si>
+    <t>167* 186 (bei Bestellung muss ein Mass grösser sein, deshalb einmal 338 (davon werden 4 mm durch Sägen weniger) * 186)</t>
   </si>
 </sst>
 </file>
@@ -464,19 +508,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,13 +820,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -837,13 +881,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -898,13 +942,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1513142</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1252,10 +1296,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,16 +1786,20 @@
         <v>7.26</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
       <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
-      <c r="B33" s="13"/>
+      <c r="B33" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
       <c r="E33" s="25"/>
@@ -1804,7 +1852,9 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
-      <c r="B38" s="11"/>
+      <c r="B38" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
       <c r="E38" s="25"/>
@@ -1866,174 +1916,270 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
-      <c r="B44" s="11"/>
+      <c r="B44" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
       <c r="E44" s="25"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
-      <c r="B45" s="13" t="s">
-        <v>33</v>
+      <c r="B45" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
       <c r="E45" s="25"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="29">
-        <v>4.34</v>
-      </c>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="25"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="29">
+        <v>4.34</v>
+      </c>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="23">
-        <v>4.34</v>
-      </c>
-      <c r="G48">
-        <v>6.72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
       <c r="E49" s="25"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="23">
+        <v>4.34</v>
+      </c>
+      <c r="G49">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="29"/>
       <c r="E50" s="25"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
-      <c r="B51" s="11"/>
+      <c r="B51" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="C51" s="28"/>
       <c r="D51" s="29"/>
       <c r="E51" s="25"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
-      <c r="B52" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="B52" s="11"/>
       <c r="C52" s="28"/>
       <c r="D52" s="29"/>
       <c r="E52" s="25"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="25"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="25"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F56" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="16" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="16" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="16">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B74" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B79" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="16" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D80" s="23">
         <v>9.49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="16" t="s">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D81" s="23">
         <v>25.99</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="16" t="s">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D82" s="23">
         <v>39.9</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="16" t="s">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D83" s="23">
         <v>5</v>
       </c>
-      <c r="F65" s="23">
-        <f>SUM(D62:D65)</f>
+      <c r="F83" s="23">
+        <f>SUM(D80:D83)</f>
         <v>80.38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E40:E46"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="C28:C33"/>
     <mergeCell ref="D28:D33"/>
@@ -2041,21 +2187,21 @@
     <mergeCell ref="C34:C39"/>
     <mergeCell ref="D34:D39"/>
     <mergeCell ref="E34:E39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="D40:D46"/>
     <mergeCell ref="E21:E27"/>
     <mergeCell ref="E28:E33"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E47:E54"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.ebay.de/ulk/usr/add24_marco.ebersbach" xr:uid="{F70DF216-BE85-4716-BA3D-3B01FC614819}"/>
@@ -2072,7 +2218,7 @@
     <hyperlink ref="B28" r:id="rId12" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=5194437" xr:uid="{B025554A-6835-4D67-A53C-C0BCD0343488}"/>
     <hyperlink ref="B34" r:id="rId13" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{605FFA6B-1696-45B3-BDD6-191DE7DE2D68}"/>
     <hyperlink ref="B40" r:id="rId14" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{2C82C9A5-FD93-41C8-8591-FF3318BB9979}"/>
-    <hyperlink ref="B47" r:id="rId15" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{64A282B7-EC5F-442D-8F44-DA4DEDBA6D65}"/>
+    <hyperlink ref="B48" r:id="rId15" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{64A282B7-EC5F-442D-8F44-DA4DEDBA6D65}"/>
     <hyperlink ref="B19" r:id="rId16" xr:uid="{32A8FD11-113F-4FF9-9D33-F02CE8742860}"/>
     <hyperlink ref="B20" r:id="rId17" xr:uid="{06375D87-F318-498C-8ED7-72A7EF44AF1B}"/>
   </hyperlinks>
